--- a/dados/horarios_cc.xlsx
+++ b/dados/horarios_cc.xlsx
@@ -306,7 +306,7 @@
   <dimension ref="A1:AA453"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121:B454"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
